--- a/sputnik/personal/uch/uch39.xlsx
+++ b/sputnik/personal/uch/uch39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -43,6 +40,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №39</t>
   </si>
 </sst>
 </file>
@@ -188,13 +191,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,64 +521,55 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9826.2000000000007</v>
-      </c>
-      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
-        <v>10447.290000000001</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="C3" s="7">
+        <v>9826.2000000000007</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
+        <v>43221</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10447.290000000001</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>43232</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>9297.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>43232</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
-        <v>528.39</v>
+        <v>9297.81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,36 +577,45 @@
         <v>43232</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>528.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>43232</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <f>PRODUCT(C3,212,0.001)</f>
+        <v>2083.1544000000004</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>43586</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
-        <f>PRODUCT(C2,212,0.001)</f>
-        <v>2083.1544000000004</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>43586</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C8" s="9">
         <v>10298.969999999999</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch39.xlsx
+++ b/sputnik/personal/uch/uch39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №39</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,9 +613,15 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>11587.5</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch39.xlsx
+++ b/sputnik/personal/uch/uch39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2019/2020</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2018/2019</t>
+  </si>
+  <si>
+    <t>оплачены пени за 2017/2018 (12.05.2018)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2018/2019 на 686к.д.</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2019/2020 на 321к.д.</t>
   </si>
 </sst>
 </file>
@@ -163,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +219,10 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,10 +641,90 @@
       <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="16">
         <v>11587.5</v>
       </c>
       <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="17">
+        <v>10447.290000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="17">
+        <v>2083.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>10298.969999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16">
+        <v>11587.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16">
+        <f>PRODUCT(D10,686,0.001)</f>
+        <v>7166.840940000001</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16">
+        <f>PRODUCT(D12,321,0.001)</f>
+        <v>3305.9693699999998</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch39.xlsx
+++ b/sputnik/personal/uch/uch39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса 2019/2020 на 321к.д.</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -721,9 +724,15 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="10">
+        <v>44317</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>12356.91</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch39.xlsx
+++ b/sputnik/personal/uch/uch39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +91,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -184,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,6 +237,24 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,17 +641,17 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="18">
         <v>43232</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="20">
         <f>PRODUCT(C3,212,0.001)</f>
         <v>2083.1544000000004</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -662,14 +690,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="21">
         <v>44060</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24">
         <v>2083.15</v>
       </c>
     </row>
@@ -698,30 +726,30 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="21">
         <v>44060</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="25">
         <f>PRODUCT(D10,686,0.001)</f>
         <v>7166.840940000001</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="21">
         <v>44060</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="25">
         <f>PRODUCT(D12,321,0.001)</f>
         <v>3305.9693699999998</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -734,6 +762,42 @@
         <v>12356.91</v>
       </c>
       <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44473</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <v>12356.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
